--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatJ.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatJ.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="14340" windowHeight="4452" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="61">
   <si>
     <t>TC</t>
   </si>
@@ -197,12 +202,15 @@
   </si>
   <si>
     <t>FourWeekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,6 +298,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -337,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,9 +381,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,6 +433,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -580,22 +625,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -623,7 +668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -637,7 +682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -651,7 +696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -665,7 +710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -679,7 +724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -700,24 +745,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="76.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="76.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -740,7 +785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -757,7 +802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -774,7 +819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -791,7 +836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -808,7 +853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -825,7 +870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -842,7 +887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -859,7 +904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -876,7 +921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
@@ -893,7 +938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -910,7 +955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -927,7 +972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -944,7 +989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -968,29 +1013,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="49.140625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="36" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="54.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="54.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
@@ -1031,7 +1076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
@@ -1066,7 +1111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
@@ -1102,7 +1147,7 @@
       </c>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
@@ -1138,7 +1183,7 @@
       </c>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>49</v>
       </c>
@@ -1174,7 +1219,7 @@
       </c>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>49</v>
       </c>
@@ -1210,7 +1255,7 @@
       </c>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>49</v>
       </c>
@@ -1246,7 +1291,7 @@
       </c>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
@@ -1282,7 +1327,7 @@
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>49</v>
       </c>
@@ -1317,7 +1362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>49</v>
       </c>
@@ -1352,7 +1397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>49</v>
       </c>
@@ -1387,7 +1432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>49</v>
       </c>
@@ -1422,7 +1467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
@@ -1457,7 +1502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>49</v>
       </c>
@@ -1494,19 +1539,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E11" r:id="rId10" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E12" r:id="rId11" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E13" r:id="rId12" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E14" r:id="rId13" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId10" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="E12" r:id="rId11" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="E13" r:id="rId12" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="E14" r:id="rId13" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
@@ -1514,29 +1559,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
@@ -1580,7 +1625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
@@ -1603,7 +1648,7 @@
         <v>51</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>57</v>
@@ -1620,7 +1665,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatJ.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatJ.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="60">
   <si>
     <t>TC</t>
   </si>
@@ -180,9 +180,6 @@
     <t>DO NOT TOUCH - PAYROLL AUTOMATION CHECK</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -204,13 +201,13 @@
     <t>FourWeekly_Payroll</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -625,7 +622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -745,7 +742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1013,11 +1010,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1081,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>36</v>
@@ -1093,25 +1090,25 @@
         <v>50</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="K2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
@@ -1119,7 +1116,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>36</v>
@@ -1128,26 +1125,26 @@
         <v>50</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="K3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
@@ -1155,7 +1152,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>36</v>
@@ -1164,26 +1161,26 @@
         <v>50</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="K4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>49</v>
       </c>
@@ -1191,7 +1188,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>36</v>
@@ -1200,26 +1197,26 @@
         <v>50</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="K5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>49</v>
       </c>
@@ -1227,7 +1224,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>36</v>
@@ -1236,26 +1233,26 @@
         <v>50</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="K6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>49</v>
       </c>
@@ -1263,7 +1260,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>36</v>
@@ -1272,26 +1269,26 @@
         <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="K7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
@@ -1299,7 +1296,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>36</v>
@@ -1308,26 +1305,26 @@
         <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="K8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>49</v>
       </c>
@@ -1335,7 +1332,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>36</v>
@@ -1344,25 +1341,25 @@
         <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="K9" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>49</v>
       </c>
@@ -1370,7 +1367,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>36</v>
@@ -1379,25 +1376,25 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="K10" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>49</v>
       </c>
@@ -1405,7 +1402,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>36</v>
@@ -1414,25 +1411,25 @@
         <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="K11" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>49</v>
       </c>
@@ -1440,7 +1437,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>36</v>
@@ -1449,25 +1446,25 @@
         <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="K12" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
@@ -1475,7 +1472,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>36</v>
@@ -1484,25 +1481,25 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="K13" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>49</v>
       </c>
@@ -1510,7 +1507,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>36</v>
@@ -1519,19 +1516,19 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>6</v>
@@ -1539,19 +1536,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="E11" r:id="rId10" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="E12" r:id="rId11" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="E13" r:id="rId12" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="E14" r:id="rId13" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E11" r:id="rId10" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E12" r:id="rId11" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E13" r:id="rId12" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E14" r:id="rId13" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
@@ -1559,10 +1556,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1613,7 +1610,7 @@
         <v>48</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>2</v>
@@ -1633,7 +1630,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>36</v>
@@ -1642,22 +1639,22 @@
         <v>50</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>6</v>
@@ -1665,7 +1662,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
